--- a/Mifos Automation Excels/Client/4789-SUBMITSA(ACTPRD-30DAY&LCKINPRD-15DAY)-APR01JAN2015-UNDOAPR-APR04JAN2015-ACT05JAN2015.xlsx
+++ b/Mifos Automation Excels/Client/4789-SUBMITSA(ACTPRD-30DAY&LCKINPRD-15DAY)-APR01JAN2015-UNDOAPR-APR04JAN2015-ACT05JAN2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewSavingInput" sheetId="1" r:id="rId1"/>
@@ -252,9 +252,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -262,6 +259,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -876,24 +876,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,40 +920,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>42009</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="7">
-        <v>86</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -974,52 +972,52 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>42009</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>10</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>47</v>
       </c>
     </row>
